--- a/outputs-r202/c__Lentisphaeria.xlsx
+++ b/outputs-r202/c__Lentisphaeria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +512,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +538,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -544,6 +564,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +590,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -607,6 +642,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -628,6 +668,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +694,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -670,6 +720,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,6 +746,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -712,6 +772,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -733,6 +798,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -754,6 +824,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -775,6 +850,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -796,6 +876,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -817,6 +902,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -838,6 +928,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -859,6 +954,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -880,6 +980,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +1006,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -922,6 +1032,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -943,6 +1058,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -964,6 +1084,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -985,6 +1110,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1006,6 +1136,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1027,6 +1162,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1048,6 +1188,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1069,6 +1214,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1090,6 +1240,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1111,6 +1266,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1132,6 +1292,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1153,6 +1318,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1174,6 +1344,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1195,6 +1370,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1216,6 +1396,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1237,6 +1422,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1258,6 +1448,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1279,6 +1474,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1300,6 +1500,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1321,6 +1526,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1342,6 +1552,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1363,6 +1578,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1384,6 +1604,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1405,6 +1630,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1426,6 +1656,11 @@
           <t>o__UBA1407</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1443,6 +1678,11 @@
         <v>0.8576511999999999</v>
       </c>
       <c r="E48" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>o__UBA1407</t>
         </is>

--- a/outputs-r202/c__Lentisphaeria.xlsx
+++ b/outputs-r202/c__Lentisphaeria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,84 +1610,6 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>hRUG882.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1423488000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>hRUG886.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1423488000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>hRUG896.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1423488000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-r202/c__Lentisphaeria.xlsx
+++ b/outputs-r202/c__Lentisphaeria.xlsx
@@ -1,3 +1,141 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </bookViews>
+  <sheets>
+    <sheet name="c__Lentisphaeria_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -280,4 +418,1199 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Row</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1-o__Lentisphaerales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2-o__UBA1407</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG038.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG095.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG111.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG118.fasta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG147.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG199.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG227.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG303.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG308.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG363.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG398.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG409.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG439.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG453.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG484.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG499.fasta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG524.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG531.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG534.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG554.fasta</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG555.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG612.fasta</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG613.fasta</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG635.fasta</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG656.fasta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG663.fasta</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG677.fasta</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG683.fasta</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG688.fasta</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG692.fasta</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG706.fasta</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG740.fasta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG743.fasta</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG763.fasta</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG822.fasta</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG850.fasta</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>hRUG853.fasta</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>hRUG855.fasta</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>hRUG856.fasta</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>hRUG866.fasta</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>hRUG875.fasta</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>hRUG882.fasta</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>hRUG886.fasta</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>hRUG896.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs-r202/c__Lentisphaeria.xlsx
+++ b/outputs-r202/c__Lentisphaeria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1353,17 +1353,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG822.fasta</t>
+          <t>RUG805.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1423488000000001</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8576511999999999</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8576511999999999</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG850.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1405,7 +1405,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>hRUG853.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1431,7 +1431,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>hRUG855.fasta</t>
+          <t>hRUG853.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1457,17 +1457,17 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>hRUG856.fasta</t>
+          <t>hRUG855.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.1423488000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.8576511999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.8576511999999999</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>hRUG866.fasta</t>
+          <t>hRUG856.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1509,17 +1509,17 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>hRUG875.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1423488000000001</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8576511999999999</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8576511999999999</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>hRUG882.fasta</t>
+          <t>hRUG875.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1561,7 +1561,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>hRUG886.fasta</t>
+          <t>hRUG882.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1587,24 +1587,50 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
+          <t>hRUG886.fasta</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>hRUG896.fasta</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.1423488000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.8576511999999999</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>o__UBA1407</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="B46" t="n">
+        <v>0.1423488000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8576511999999999</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>o__UBA1407</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>o__UBA1407</t>
         </is>
